--- a/DSD_2023_2024_servico_externo_v6_revisto_TF_DSD_28junho.xlsx
+++ b/DSD_2023_2024_servico_externo_v6_revisto_TF_DSD_28junho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34440" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Servico_externo" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="622">
   <si>
     <t>Nome do docente</t>
   </si>
@@ -658,9 +658,6 @@
     <t>agustin.merino@usc.es</t>
   </si>
   <si>
-    <t xml:space="preserve">36 letivas + 2,25 tutorias + 74,25 trabalho autonomo alumnos </t>
-  </si>
-  <si>
     <t>João Manuel das Neves Silva</t>
   </si>
   <si>
@@ -1874,9 +1871,6 @@
     <t>Das quais 155 não são de docentes e 102,5 são de uma Lic espanha. Acrescentar 43,5 horas</t>
   </si>
   <si>
-    <t>não fazemos parte do consórcio; são muitas horas; verificar o que fazer com CG</t>
-  </si>
-  <si>
     <t>Das quais 108 não são de docentes, 70 são de um curso na Gorongoza do João Silva. ACRESCENTAR 132 HORAS</t>
   </si>
   <si>
@@ -1920,13 +1914,28 @@
   </si>
   <si>
     <t>DSD</t>
+  </si>
+  <si>
+    <t>Ecologia Aplicada</t>
+  </si>
+  <si>
+    <t>Eng Ambiente</t>
+  </si>
+  <si>
+    <t>Seminário De Desenvolvimento do Plano de Tese</t>
+  </si>
+  <si>
+    <t>Seminário De Metodologias Experimentais</t>
+  </si>
+  <si>
+    <t>Seminário De Conhecimento Avançado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2037,6 +2046,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2087,7 +2111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2314,13 +2338,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2382,10 +2416,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2546,10 +2576,27 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2850,11 +2897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC90"/>
+  <dimension ref="A1:XFC114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2877,122 +2924,122 @@
     <col min="17" max="17" width="10.08984375" style="1" customWidth="1"/>
     <col min="18" max="18" width="23.08984375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.90625" style="1"/>
-    <col min="20" max="20" width="8.90625" style="58"/>
+    <col min="20" max="20" width="8.90625" style="57"/>
     <col min="21" max="29" width="8.90625" style="1"/>
     <col min="30" max="30" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>618</v>
+        <v>591</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20">
+      <c r="O2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19">
         <v>8.5</v>
       </c>
-      <c r="T2" s="58">
+      <c r="T2" s="57">
         <v>1</v>
       </c>
       <c r="XFC2" s="1">
@@ -3001,56 +3048,56 @@
       </c>
     </row>
     <row r="3" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20">
+      <c r="O3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19">
         <v>7</v>
       </c>
-      <c r="T3" s="58">
+      <c r="T3" s="57">
         <v>1</v>
       </c>
       <c r="XFC3" s="1">
@@ -3059,56 +3106,56 @@
       </c>
     </row>
     <row r="4" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="O4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19">
         <v>12.5</v>
       </c>
-      <c r="T4" s="58">
+      <c r="T4" s="57">
         <v>1</v>
       </c>
       <c r="XFC4" s="1">
@@ -3117,56 +3164,56 @@
       </c>
     </row>
     <row r="5" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20">
+      <c r="O5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19">
         <v>4</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="57">
         <v>1</v>
       </c>
       <c r="XFC5" s="1">
@@ -3175,56 +3222,56 @@
       </c>
     </row>
     <row r="6" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="O6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19">
         <v>4</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="57">
         <v>1</v>
       </c>
       <c r="XFC6" s="1">
@@ -3233,56 +3280,56 @@
       </c>
     </row>
     <row r="7" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20">
+      <c r="O7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19">
         <v>4</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="57">
         <v>1</v>
       </c>
       <c r="XFC7" s="1">
@@ -3290,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21 16383:16383" ht="84.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21 16383:16383" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>190</v>
       </c>
@@ -3338,66 +3385,64 @@
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="2">
-        <v>102.5</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="S8" s="42" t="s">
-        <v>198</v>
+        <v>12</v>
+      </c>
+      <c r="S8" s="41"/>
+      <c r="T8" s="57">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20">
+      <c r="O9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19">
         <v>3.5</v>
       </c>
-      <c r="T9" s="58">
+      <c r="T9" s="57">
         <v>1</v>
       </c>
       <c r="XFC9" s="1">
@@ -3407,13 +3452,13 @@
     </row>
     <row r="10" spans="1:21 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>93</v>
@@ -3431,19 +3476,19 @@
         <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>29</v>
@@ -3452,13 +3497,13 @@
         <v>38</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="2">
         <v>60</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="XFC10" s="1">
         <f>SUM(P10:XFB10)</f>
@@ -3467,13 +3512,13 @@
     </row>
     <row r="11" spans="1:21 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>93</v>
@@ -3491,19 +3536,19 @@
         <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>29</v>
@@ -3512,13 +3557,13 @@
         <v>38</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="2">
         <v>60</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="XFC11" s="1">
         <f>SUM(P11:XFB11)</f>
@@ -3526,59 +3571,59 @@
       </c>
     </row>
     <row r="12" spans="1:21 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="L12" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="M12" s="28" t="s">
+      <c r="N12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <v>35</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="XFC12" s="1">
         <f>SUM(P12:XFB12)</f>
@@ -3586,88 +3631,88 @@
       </c>
     </row>
     <row r="13" spans="1:21 16383:16383" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="52">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="51">
         <f>SUM(Q2:Q12)</f>
-        <v>301</v>
-      </c>
-      <c r="R13" s="53" t="s">
-        <v>602</v>
+        <v>210.5</v>
+      </c>
+      <c r="R13" s="52" t="s">
+        <v>601</v>
       </c>
       <c r="U13" s="1">
-        <f>SUM(Q2:Q7,Q9)</f>
-        <v>43.5</v>
+        <f>SUMPRODUCT(Q2:Q12,T2:T12)</f>
+        <v>55.5</v>
       </c>
     </row>
     <row r="14" spans="1:21 16383:16383" ht="37" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="J14" s="45" t="s">
+      <c r="K14" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="K14" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="M14" s="45" t="s">
+      <c r="L14" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="N14" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="44">
         <v>21</v>
       </c>
-      <c r="R14" s="33" t="s">
-        <v>593</v>
+      <c r="R14" s="32" t="s">
+        <v>592</v>
       </c>
       <c r="XFC14" s="1">
         <f t="shared" ref="XFC14:XFC31" si="1">SUM(P14:XFB14)</f>
@@ -3676,13 +3721,13 @@
     </row>
     <row r="15" spans="1:21 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -3700,19 +3745,19 @@
         <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>29</v>
@@ -3727,7 +3772,7 @@
         <v>12</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="XFC15" s="1">
         <f t="shared" si="1"/>
@@ -3736,13 +3781,13 @@
     </row>
     <row r="16" spans="1:21 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -3760,19 +3805,19 @@
         <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>29</v>
@@ -3787,22 +3832,22 @@
         <v>50</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="XFC16" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:21 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
@@ -3820,19 +3865,19 @@
         <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>29</v>
@@ -3847,69 +3892,69 @@
         <v>25</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="XFC17" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:21 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:20 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="F18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="26" t="s">
+      <c r="O18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="25">
         <v>2</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="T18" s="58">
+        <v>595</v>
+      </c>
+      <c r="T18" s="57">
         <v>1</v>
       </c>
       <c r="XFC18" s="1">
@@ -3917,60 +3962,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:20 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="G19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20">
+      <c r="O19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19">
         <v>2</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="T19" s="58">
+        <v>595</v>
+      </c>
+      <c r="T19" s="57">
         <v>1</v>
       </c>
       <c r="XFC19" s="1">
@@ -3978,57 +4023,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:20 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20">
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19">
         <v>6</v>
       </c>
-      <c r="T20" s="58">
+      <c r="T20" s="57">
         <v>1</v>
       </c>
       <c r="XFC20" s="1">
@@ -4036,53 +4081,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:20 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20">
+      <c r="O21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19">
         <v>4</v>
       </c>
-      <c r="T21" s="58">
+      <c r="T21" s="57">
         <v>1</v>
       </c>
       <c r="XFC21" s="1">
@@ -4090,57 +4135,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:21 16383:16383" ht="120.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:20 16383:16383" ht="120.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19">
         <v>15</v>
       </c>
-      <c r="T22" s="58">
+      <c r="T22" s="57">
         <v>1</v>
       </c>
       <c r="XFC22" s="1">
@@ -4148,15 +4193,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
@@ -4174,19 +4219,19 @@
         <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="K23" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>29</v>
@@ -4201,66 +4246,69 @@
         <v>70</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
+      </c>
+      <c r="T23" s="57">
+        <v>1</v>
       </c>
       <c r="XFC23" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21 16383:16383" ht="120.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20 16383:16383" ht="120.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="19">
         <v>17</v>
       </c>
-      <c r="T24" s="58">
+      <c r="T24" s="57">
         <v>1</v>
       </c>
       <c r="XFC24" s="1">
@@ -4268,58 +4316,58 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:21 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:20 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="20" t="s">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20">
+      <c r="O25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19">
         <v>2</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="T25" s="58">
+        <v>595</v>
+      </c>
+      <c r="T25" s="57">
         <v>1</v>
       </c>
       <c r="XFC25" s="1">
@@ -4327,54 +4375,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:21 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:20 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="43" t="s">
+      <c r="M26" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="M26" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20">
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19">
         <v>2</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="T26" s="58">
+        <v>595</v>
+      </c>
+      <c r="T26" s="57">
         <v>1</v>
       </c>
       <c r="XFC26" s="1">
@@ -4382,60 +4430,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21 16383:16383" ht="96.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:20 16383:16383" ht="96.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="46" t="s">
+      <c r="N27" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="46" t="s">
+      <c r="O27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46">
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45">
         <v>10</v>
       </c>
-      <c r="R27" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="T27" s="58">
+      <c r="R27" s="47" t="s">
+        <v>603</v>
+      </c>
+      <c r="T27" s="57">
         <v>1</v>
       </c>
       <c r="XFC27" s="1">
@@ -4443,59 +4491,59 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:21 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:20 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="20" t="s">
+      <c r="G28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="19">
         <v>15</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="19">
         <v>36</v>
       </c>
-      <c r="T28" s="58">
+      <c r="T28" s="57">
         <v>1</v>
       </c>
       <c r="XFC28" s="1">
@@ -4503,59 +4551,59 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:21 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:20 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="20" t="s">
+      <c r="F29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="19">
         <v>15</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="19">
         <v>13</v>
       </c>
-      <c r="T29" s="58">
+      <c r="T29" s="57">
         <v>1</v>
       </c>
       <c r="XFC29" s="1">
@@ -4563,49 +4611,49 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:21 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:20 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20" t="s">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20">
+      <c r="O30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19">
         <v>2</v>
       </c>
-      <c r="T30" s="58">
+      <c r="T30" s="57">
         <v>1</v>
       </c>
       <c r="XFC30" s="1">
@@ -4613,57 +4661,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21 16383:16383" ht="120.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:20 16383:16383" ht="120.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21">
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20">
         <v>21</v>
       </c>
-      <c r="T31" s="58">
+      <c r="T31" s="57">
         <v>1</v>
       </c>
       <c r="XFC31" s="1">
@@ -4671,275 +4719,279 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21 16383:16383" ht="78.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="54">
-        <f>SUM(Q14:Q31)</f>
-        <v>310</v>
-      </c>
-      <c r="R32" s="55" t="s">
-        <v>604</v>
-      </c>
-      <c r="U32" s="1">
-        <f>SUMPRODUCT(Q14:Q31,T14:T31)</f>
-        <v>132</v>
-      </c>
-      <c r="XFC32" s="1">
-        <f t="shared" ref="XFC32:XFC47" si="2">SUM(P32:XFB32)</f>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30 16383:16383" ht="44" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
+    <row r="32" spans="1:20 16383:16383" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" s="59">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="59">
+        <v>30</v>
+      </c>
+      <c r="T32" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30 16383:16383" ht="78.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="53">
+        <f>SUM(Q14:Q32)</f>
+        <v>340</v>
+      </c>
+      <c r="R33" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="U33" s="1">
+        <f>SUMPRODUCT(Q14:Q32,T14:T32)</f>
+        <v>232</v>
+      </c>
+      <c r="XFC33" s="1">
+        <f t="shared" ref="XFC33:XFC48" si="2">SUM(P33:XFB33)</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30 16383:16383" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="30" t="s">
+      <c r="G34" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I34" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J34" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="M33" s="30" t="s">
+      <c r="M34" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="N34" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O33" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30">
+      <c r="O34" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29">
         <v>12</v>
       </c>
-      <c r="R33" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="XFC33" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>3</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>593</v>
+      <c r="R34" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="T34" s="57">
+        <v>1</v>
       </c>
       <c r="XFC34" s="1">
         <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q35" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:30 16383:16383" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="11">
-        <v>24</v>
+      <c r="R35" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="XFC35" s="1">
         <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30 16383:16383" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:30 16383:16383" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="2">
-        <v>8</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>600</v>
+      <c r="T36" s="57">
+        <v>1</v>
       </c>
       <c r="XFC36" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30 16383:16383" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
         <v>23</v>
@@ -4947,8 +4999,8 @@
       <c r="I37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>143</v>
+      <c r="J37" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>159</v>
@@ -4959,71 +5011,71 @@
       <c r="M37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>599</v>
       </c>
+      <c r="T37" s="57">
+        <v>1</v>
+      </c>
       <c r="XFC37" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>249</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>53</v>
+      <c r="I38" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4">
-        <v>9</v>
+      <c r="Q38" s="2">
+        <v>10</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="XFC38" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
@@ -5031,7 +5083,7 @@
         <v>127</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>51</v>
@@ -5059,10 +5111,10 @@
         <v>55</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>29</v>
@@ -5072,19 +5124,22 @@
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="T39" s="57">
+        <v>1</v>
       </c>
       <c r="XFC39" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>51</v>
@@ -5093,7 +5148,7 @@
         <v>52</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>22</v>
@@ -5112,10 +5167,10 @@
         <v>55</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>29</v>
@@ -5125,19 +5180,22 @@
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="T40" s="57">
+        <v>1</v>
       </c>
       <c r="XFC40" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -5146,7 +5204,7 @@
         <v>52</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>22</v>
@@ -5165,10 +5223,10 @@
         <v>55</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>29</v>
@@ -5180,20 +5238,23 @@
       <c r="Q41" s="4">
         <v>9</v>
       </c>
+      <c r="T41" s="57">
+        <v>1</v>
+      </c>
       <c r="XFC41" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>52</v>
@@ -5209,72 +5270,75 @@
         <v>23</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="O42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="T42" s="57">
+        <v>1</v>
       </c>
       <c r="XFC42" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:30 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="51" t="s">
+      <c r="B43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="4" t="s">
         <v>142</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="4" t="s">
         <v>144</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>29</v>
@@ -5282,56 +5346,57 @@
       <c r="O43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8">
-        <v>2.5</v>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <v>5</v>
+      </c>
+      <c r="T43" s="57">
+        <v>1</v>
       </c>
       <c r="XFC43" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>151</v>
+      <c r="B44" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>141</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>66</v>
+      <c r="I44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O44" s="8" t="s">
@@ -5339,75 +5404,83 @@
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8">
-        <v>7.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="T44" s="57">
+        <v>1</v>
       </c>
       <c r="XFC44" s="1">
         <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13">
-        <v>12</v>
+      <c r="T45" s="57">
+        <v>1</v>
       </c>
       <c r="XFC45" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30 16383:16383" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>52</v>
@@ -5423,17 +5496,19 @@
         <v>23</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="K46" s="13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N46" s="12" t="s">
         <v>29</v>
@@ -5443,35 +5518,25 @@
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13">
-        <v>6</v>
-      </c>
-      <c r="Z46" s="48" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA46" s="48" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB46" s="48" t="s">
-        <v>616</v>
-      </c>
-      <c r="AC46" s="48" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD46" s="48"/>
+        <v>12</v>
+      </c>
+      <c r="T46" s="57">
+        <v>1</v>
+      </c>
       <c r="XFC46" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30 16383:16383" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>52</v>
@@ -5487,17 +5552,17 @@
         <v>23</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N47" s="12" t="s">
         <v>29</v>
@@ -5507,99 +5572,105 @@
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA47" s="48">
-        <v>43.5</v>
-      </c>
-      <c r="AB47" s="48">
-        <v>102.5</v>
-      </c>
-      <c r="AC47" s="48">
-        <v>155</v>
-      </c>
-      <c r="AD47" s="48"/>
+        <v>6</v>
+      </c>
+      <c r="T47" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA47" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB47" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="AC47" s="47" t="s">
+        <v>615</v>
+      </c>
+      <c r="AD47" s="47"/>
       <c r="XFC47" s="1">
         <f t="shared" si="2"/>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13">
+        <v>5</v>
+      </c>
+      <c r="T48" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA48" s="47">
+        <v>43.5</v>
+      </c>
+      <c r="AB48" s="47">
+        <v>102.5</v>
+      </c>
+      <c r="AC48" s="47">
+        <v>155</v>
+      </c>
+      <c r="AD48" s="47"/>
+      <c r="XFC48" s="1">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="48" t="s">
-        <v>612</v>
-      </c>
-      <c r="AA48" s="48">
-        <v>132</v>
-      </c>
-      <c r="AB48" s="48">
-        <v>70</v>
-      </c>
-      <c r="AC48" s="48">
-        <v>108</v>
-      </c>
-      <c r="AD48" s="48"/>
-    </row>
-    <row r="49" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>52</v>
@@ -5611,314 +5682,331 @@
         <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>29</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q49" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z49" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA49" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="XFC49" s="1">
-        <f>SUM(P49:XFB49)</f>
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
+        <v>4</v>
+      </c>
+      <c r="T49" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA49" s="47">
+        <v>132</v>
+      </c>
+      <c r="AB49" s="47">
+        <v>70</v>
+      </c>
+      <c r="AC49" s="47">
+        <v>108</v>
+      </c>
+      <c r="AD49" s="47"/>
     </row>
     <row r="50" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>88</v>
+      <c r="A50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N50" s="8" t="s">
+      <c r="G50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O50" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z50" s="48" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA50" s="48">
-        <v>175.5</v>
-      </c>
-      <c r="AB50" s="48">
-        <v>172.5</v>
-      </c>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
+      <c r="O50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q50" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="T50" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA50" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
       <c r="XFC50" s="1">
         <f>SUM(P50:XFB50)</f>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30 16383:16383" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8">
+        <v>4</v>
+      </c>
+      <c r="T51" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="47" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA51" s="47">
+        <v>175.5</v>
+      </c>
+      <c r="AB51" s="47">
+        <v>172.5</v>
+      </c>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="XFC51" s="1">
+        <f>SUM(P51:XFB51)</f>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30 16383:16383" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C52" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D52" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38" t="s">
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38" t="s">
+      <c r="J52" s="37"/>
+      <c r="K52" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L51" s="38" t="s">
+      <c r="L52" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="38" t="s">
+      <c r="M52" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="N51" s="38" t="s">
+      <c r="N52" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="O51" s="38" t="s">
+      <c r="O52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38">
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37">
         <v>1</v>
       </c>
-      <c r="R51" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30 16383:16383" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="56">
-        <f>SUM(Q33:Q51)</f>
+      <c r="R52" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="T52" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30 16383:16383" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="55">
+        <f>SUM(Q34:Q52)</f>
         <v>137</v>
       </c>
-      <c r="R52" s="57"/>
-      <c r="T52" s="58">
-        <f>SUM(Q33)</f>
-        <v>12</v>
-      </c>
-      <c r="XFC52" s="1">
-        <f>SUM(P52:XFB52)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30 16383:16383" ht="37" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="39" t="s">
+      <c r="R53" s="56"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="1">
+        <f>SUMPRODUCT(Q34:Q52,T34:T52)</f>
+        <v>124</v>
+      </c>
+      <c r="XFC53" s="1">
+        <f>SUM(P53:XFB53)</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30 16383:16383" ht="37" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="D54" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J54" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="J53" s="31" t="s">
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31" t="s">
+      <c r="N54" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O54" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="N53" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="O53" s="31" t="s">
+      <c r="P54" s="30">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="30">
+        <v>80</v>
+      </c>
+      <c r="R54" s="32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P53" s="31">
-        <v>15</v>
-      </c>
-      <c r="Q53" s="31">
-        <v>80</v>
-      </c>
-      <c r="R53" s="33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="O54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="P54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="XFC54" s="1">
-        <f t="shared" ref="XFC54:XFC59" si="3">SUM(P54:XFB54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="C55" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>184</v>
@@ -5959,127 +6047,129 @@
       <c r="P55" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q55" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="XFC55" s="1">
+        <f t="shared" ref="XFC55:XFC60" si="3">SUM(P55:XFB55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q56" s="11">
         <v>3</v>
       </c>
-      <c r="R55" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="XFC55" s="1">
+      <c r="R56" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="XFC56" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8">
-        <v>8</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="XFC56" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
     <row r="57" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B57" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="K57" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="L57" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="M57" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4">
+      <c r="O57" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8">
         <v>8</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="XFC57" s="1">
         <f t="shared" si="3"/>
@@ -6088,13 +6178,13 @@
     </row>
     <row r="58" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="C58" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>260</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>184</v>
@@ -6111,20 +6201,20 @@
       <c r="H58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="J58" s="15" t="s">
+      <c r="K58" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="L58" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="L58" s="15" t="s">
+      <c r="M58" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>29</v>
@@ -6133,35 +6223,35 @@
         <v>38</v>
       </c>
       <c r="P58" s="4"/>
-      <c r="Q58" s="12">
-        <v>4</v>
+      <c r="Q58" s="4">
+        <v>8</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="XFC58" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30 16383:16383" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>183</v>
+        <v>257</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>184</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>22</v>
@@ -6169,212 +6259,171 @@
       <c r="H59" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>189</v>
+      <c r="I59" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P59" s="4">
-        <v>6</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P59" s="4"/>
       <c r="Q59" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="XFC59" s="1">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30 16383:16383" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P60" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>8</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="XFC60" s="1">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:30 16383:16383" ht="84.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:30 16383:16383" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="J61" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="K61" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q60" s="2">
+      <c r="Q61" s="2">
         <v>8</v>
       </c>
-      <c r="R60" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30 16383:16383" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:30 16383:16383" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q62" s="11"/>
-    </row>
-    <row r="63" spans="1:30 16383:16383" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q63" s="15"/>
-    </row>
-    <row r="64" spans="1:30 16383:16383" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" spans="1:18 16383:16383" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
+      <c r="R61" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="66" spans="1:18 16383:16383" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
     </row>
@@ -6605,78 +6654,39 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
-      <c r="XFC78" s="1">
-        <f>SUM(P78:XFB78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="79" spans="1:18 16383:16383" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
       <c r="P79" s="4"/>
-      <c r="Q79" s="4">
-        <v>2</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>595</v>
-      </c>
+      <c r="Q79" s="4"/>
       <c r="XFC79" s="1">
         <f>SUM(P79:XFB79)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18 16383:16383" ht="72.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>594</v>
+        <v>166</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>20</v>
@@ -6694,47 +6704,47 @@
         <v>23</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K80" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>169</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="XFC80" s="1">
         <f>SUM(P80:XFB80)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18 16383:16383" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>59</v>
+        <v>593</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>20</v>
@@ -6745,50 +6755,54 @@
       <c r="F81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H81" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4" t="s">
-        <v>61</v>
+        <v>172</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="XFC81" s="1">
         <f>SUM(P81:XFB81)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18 16383:16383" ht="72.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>20</v>
@@ -6797,59 +6811,61 @@
         <v>21</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J82" s="24" t="s">
-        <v>168</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O82" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="XFC82" s="1">
+        <f>SUM(P82:XFB82)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18 16383:16383" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>91</v>
+        <v>156</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>38</v>
@@ -6858,73 +6874,71 @@
         <v>23</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O83" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="XFC83" s="1">
-        <f>SUM(P83:XFB83)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18 16383:16383" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>75</v>
+        <v>158</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H84" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J84" s="4"/>
-      <c r="K84" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>29</v>
@@ -6934,34 +6948,69 @@
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="XFC84" s="1">
         <f>SUM(P84:XFB84)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18 16383:16383" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18 16383:16383" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
+      <c r="R85" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="XFC85" s="1">
+        <f>SUM(P85:XFB85)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:18 16383:16383" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
@@ -7058,15 +7107,718 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
     </row>
+    <row r="91" spans="1:18 16383:16383" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="97" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2">
+        <v>24</v>
+      </c>
+      <c r="T97" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2">
+        <v>16</v>
+      </c>
+      <c r="T98" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B99" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2">
+        <v>16</v>
+      </c>
+      <c r="T99" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2">
+        <v>24</v>
+      </c>
+      <c r="T100" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2">
+        <v>24</v>
+      </c>
+      <c r="T101" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2">
+        <v>24</v>
+      </c>
+      <c r="T102" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2">
+        <v>16</v>
+      </c>
+      <c r="T103" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2">
+        <v>24</v>
+      </c>
+      <c r="T104" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2">
+        <v>24</v>
+      </c>
+      <c r="T105" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2">
+        <v>16</v>
+      </c>
+      <c r="T106" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2">
+        <v>16</v>
+      </c>
+      <c r="T107" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2">
+        <v>16</v>
+      </c>
+      <c r="T108" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2">
+        <v>8</v>
+      </c>
+      <c r="T109" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2">
+        <v>8</v>
+      </c>
+      <c r="T110" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2">
+        <v>8</v>
+      </c>
+      <c r="T111" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B112" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2">
+        <v>8</v>
+      </c>
+      <c r="T112" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B113" s="62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2">
+        <v>8</v>
+      </c>
+      <c r="T113" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B114" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2">
+        <v>8</v>
+      </c>
+      <c r="T114" s="57">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:XFC105">
     <sortCondition ref="D2:D105"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J35" r:id="rId1"/>
-    <hyperlink ref="J33" r:id="rId2"/>
+    <hyperlink ref="J36" r:id="rId1"/>
+    <hyperlink ref="J34" r:id="rId2"/>
     <hyperlink ref="J23" r:id="rId3"/>
-    <hyperlink ref="J82" r:id="rId4"/>
+    <hyperlink ref="J83" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -7078,31 +7830,31 @@
           <x14:formula1>
             <xm:f>InfoAux!C$2:C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E66:E90 E36:E42 E57:E61 E48:E49 E15:E30 E2 E4:E13</xm:sqref>
+          <xm:sqref>E67:E91 E15:E30 E2 E4:E13 E49:E50 E97:E114 E58:E61 E37:E43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>InfoAux!A$2:A$334</xm:f>
           </x14:formula1>
-          <xm:sqref>A66:A90 A35:A42 A57:A64 A48:A49 A15:A30 A2:A13</xm:sqref>
+          <xm:sqref>A67:A91 A36:A43 A58:A61 A2:A13 A49:A50 A15:A30 L97:L114 A97:A114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>InfoAux!B$2:B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D66:D90 D36:D42 D57:D61 D48:D49 D15:D30 D2:D13</xm:sqref>
+          <xm:sqref>D67:D91 D15:D30 D2:D13 D49:D50 D97:D114 D58:D61 D37:D43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>InfoAux!D$2:D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F66:H90 F36:H42 F57:H61 F48:H49 F15:H30 F2:H13</xm:sqref>
+          <xm:sqref>F67:H91 F15:H30 F2:H13 F49:H50 F37:H43 F58:H61 F97:H114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>InfoAux!G$2:G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N66:O90 N36:O41 N49 N57:O61 O48:O49 N15:O30 N2:O13</xm:sqref>
+          <xm:sqref>N67:O91 N15:O30 N2:O13 O49:O50 N37:O42 N58:O61 N50 N97:O114</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7154,7 +7906,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -7180,7 +7932,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -7206,7 +7958,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -7217,7 +7969,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
@@ -7225,182 +7977,182 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
@@ -7410,77 +8162,77 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
@@ -7490,17 +8242,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
@@ -7510,52 +8262,52 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -7565,62 +8317,62 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
@@ -7630,202 +8382,202 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
@@ -7835,97 +8587,97 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
@@ -7935,22 +8687,22 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
@@ -7960,82 +8712,82 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
@@ -8050,32 +8802,32 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
@@ -8085,22 +8837,22 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
@@ -8110,117 +8862,117 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
@@ -8230,152 +8982,152 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
@@ -8385,7 +9137,7 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
@@ -8395,112 +9147,112 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
@@ -8510,102 +9262,102 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
@@ -8615,57 +9367,57 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
@@ -8675,72 +9427,72 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
@@ -8750,122 +9502,122 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
